--- a/data/listados/Lejano/L_L_Saija.xlsx
+++ b/data/listados/Lejano/L_L_Saija.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felic\OneDrive\Escritorio\LISTADOS DE ASISTENCIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Lejano/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_8429F3B744CB768CAA0EFB8202C146D21818D9C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE2EB10-194E-4983-9C8E-2CC09CE803E4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="1" r:id="rId1"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -535,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="0" shapeId="0">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -585,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0" shapeId="0">
+    <comment ref="V19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -610,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W19" authorId="0" shapeId="0">
+    <comment ref="Y19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -635,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -664,12 +665,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -694,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -718,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -742,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -767,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -793,7 +794,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -817,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -842,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -867,7 +868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -892,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -941,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -966,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -991,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1164,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1313,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1338,7 +1339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1388,7 +1389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1413,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1438,7 +1439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1463,7 +1464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1512,7 +1513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -1561,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -1586,7 +1587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
       <text>
         <r>
           <rPr>
@@ -1635,7 +1636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
       <text>
         <r>
           <rPr>
@@ -1659,7 +1660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA10" authorId="0" shapeId="0">
+    <comment ref="AA10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ12" authorId="0" shapeId="0">
+    <comment ref="AJ12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -1708,7 +1709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0" shapeId="0">
+    <comment ref="Q13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -1733,7 +1734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0" shapeId="0">
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -1758,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0" shapeId="0">
+    <comment ref="O14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="0" shapeId="0">
+    <comment ref="W18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1813,12 +1814,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1842,7 +1843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1866,7 +1867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1890,7 +1891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1915,7 +1916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1940,7 +1941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1965,7 +1966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1990,7 +1991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2015,7 +2016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2039,7 +2040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2063,7 +2064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2088,7 +2089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -2114,7 +2115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -2140,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -2164,7 +2165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -2189,7 +2190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -2214,7 +2215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2239,7 +2240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2265,7 +2266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -2290,7 +2291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2315,7 +2316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0" shapeId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2340,7 +2341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2365,7 +2366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2392,7 +2393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2419,7 +2420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0" shapeId="0">
+    <comment ref="T13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2444,7 +2445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2468,7 +2469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2492,7 +2493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2516,7 +2517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0" shapeId="0">
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2541,7 +2542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2566,7 +2567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2591,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2616,7 +2617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K18" authorId="0" shapeId="0">
+    <comment ref="K18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L18" authorId="0" shapeId="0">
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -2666,7 +2667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -2691,7 +2692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0" shapeId="0">
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -2716,7 +2717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="0" shapeId="0">
+    <comment ref="T18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -2741,7 +2742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U18" authorId="0" shapeId="0">
+    <comment ref="U18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -2766,7 +2767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -2791,7 +2792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
       <text>
         <r>
           <rPr>
@@ -2816,7 +2817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
       <text>
         <r>
           <rPr>
@@ -2842,7 +2843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0">
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -2867,7 +2868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0">
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -2892,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L38" authorId="0" shapeId="0">
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -2917,7 +2918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0" shapeId="0">
+    <comment ref="T38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -2949,12 +2950,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2978,7 +2979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3009,12 +3010,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3039,7 +3040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3064,7 +3065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3089,7 +3090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3113,7 +3114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3138,7 +3139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3163,7 +3164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3188,7 +3189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3212,7 +3213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3241,12 +3242,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3271,7 +3272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3295,7 +3296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3319,7 +3320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3334,7 +3335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3359,7 +3360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3384,7 +3385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3409,7 +3410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3434,7 +3435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3458,7 +3459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3483,7 +3484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -3508,7 +3509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -3533,7 +3534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -3559,7 +3560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -3584,7 +3585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -3609,7 +3610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000010000000}">
       <text>
         <r>
           <rPr>
@@ -3634,7 +3635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000011000000}">
       <text>
         <r>
           <rPr>
@@ -3661,7 +3662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000012000000}">
       <text>
         <r>
           <rPr>
@@ -3685,7 +3686,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000013000000}">
       <text>
         <r>
           <rPr>
@@ -3709,7 +3710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000014000000}">
       <text>
         <r>
           <rPr>
@@ -3734,7 +3735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000015000000}">
       <text>
         <r>
           <rPr>
@@ -3758,7 +3759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000016000000}">
       <text>
         <r>
           <rPr>
@@ -3783,7 +3784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000017000000}">
       <text>
         <r>
           <rPr>
@@ -3808,7 +3809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000018000000}">
       <text>
         <r>
           <rPr>
@@ -3833,7 +3834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000019000000}">
       <text>
         <r>
           <rPr>
@@ -3858,7 +3859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -3883,7 +3884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -3908,7 +3909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -3933,7 +3934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -3958,7 +3959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="0" shapeId="0">
+    <comment ref="T14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -3983,7 +3984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -4008,7 +4009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000020000000}">
       <text>
         <r>
           <rPr>
@@ -4033,7 +4034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0" shapeId="0">
+    <comment ref="T15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000021000000}">
       <text>
         <r>
           <rPr>
@@ -4064,12 +4065,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shirley Granja Nùñez</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4093,7 +4094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4119,7 +4120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4146,7 +4147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4171,7 +4172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4196,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4221,7 +4222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4245,7 +4246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4269,7 +4270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4294,7 +4295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4319,7 +4320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -4343,7 +4344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -4368,7 +4369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -4393,7 +4394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -4418,7 +4419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -4436,7 +4437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
       <text>
         <r>
           <rPr>
@@ -4461,7 +4462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
       <text>
         <r>
           <rPr>
@@ -4486,7 +4487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
       <text>
         <r>
           <rPr>
@@ -4511,7 +4512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
       <text>
         <r>
           <rPr>
@@ -4536,7 +4537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
       <text>
         <r>
           <rPr>
@@ -4561,7 +4562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
       <text>
         <r>
           <rPr>
@@ -4589,7 +4590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000016000000}">
       <text>
         <r>
           <rPr>
@@ -4614,7 +4615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0">
+    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000017000000}">
       <text>
         <r>
           <rPr>
@@ -4639,7 +4640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000018000000}">
       <text>
         <r>
           <rPr>
@@ -4666,7 +4667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000019000000}">
       <text>
         <r>
           <rPr>
@@ -4696,14 +4697,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="160">
   <si>
     <t>CAICEDO ENRIQUES LUÍS MIGUEL</t>
   </si>
   <si>
-    <t xml:space="preserve">HERRERA RUÍZ DEINER </t>
-  </si>
-  <si>
     <t>MONTAÑO HURTADO LINDIMAR</t>
   </si>
   <si>
@@ -4728,9 +4726,6 @@
     <t>PALOMINO CUERO ELKIN STIVEN</t>
   </si>
   <si>
-    <t>GRADO  6</t>
-  </si>
-  <si>
     <t>GRADO 7</t>
   </si>
   <si>
@@ -4834,9 +4829,6 @@
   </si>
   <si>
     <t>VENTE HURTADO JOSE MIGUEL</t>
-  </si>
-  <si>
-    <t>GRADO 9</t>
   </si>
   <si>
     <t>CUERO CUERO EIDER CAMILO</t>
@@ -5201,11 +5193,20 @@
   <si>
     <t>MONTAÑO CUERO ALEX</t>
   </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5652,325 +5653,635 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
-    <col min="5" max="5" width="2.85546875" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
-    <col min="20" max="20" width="2.5703125" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" customWidth="1"/>
-    <col min="25" max="26" width="4" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
+    <col min="14" max="14" width="3.109375" customWidth="1"/>
+    <col min="15" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="2.88671875" customWidth="1"/>
+    <col min="17" max="17" width="3.44140625" customWidth="1"/>
+    <col min="22" max="22" width="2.5546875" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" customWidth="1"/>
+    <col min="24" max="24" width="2.88671875" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" customWidth="1"/>
+    <col min="27" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="3.88671875" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C30">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>55</v>
+      <c r="C54">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5981,136 +6292,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="4" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="3.5546875" customWidth="1"/>
+    <col min="20" max="20" width="3.33203125" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="24" max="24" width="3.85546875" customWidth="1"/>
-    <col min="25" max="25" width="2.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" customWidth="1"/>
-    <col min="27" max="28" width="3.140625" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" customWidth="1"/>
-    <col min="30" max="30" width="2.5703125" customWidth="1"/>
-    <col min="31" max="31" width="2.28515625" customWidth="1"/>
-    <col min="32" max="32" width="2.42578125" customWidth="1"/>
-    <col min="33" max="33" width="3.42578125" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" customWidth="1"/>
+    <col min="24" max="24" width="3.88671875" customWidth="1"/>
+    <col min="25" max="25" width="2.6640625" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" customWidth="1"/>
+    <col min="27" max="28" width="3.109375" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" customWidth="1"/>
+    <col min="30" max="30" width="2.5546875" customWidth="1"/>
+    <col min="31" max="31" width="2.33203125" customWidth="1"/>
+    <col min="32" max="32" width="2.44140625" customWidth="1"/>
+    <col min="33" max="33" width="3.44140625" customWidth="1"/>
+    <col min="34" max="34" width="3.6640625" customWidth="1"/>
+    <col min="35" max="35" width="3.88671875" customWidth="1"/>
+    <col min="36" max="36" width="3.44140625" customWidth="1"/>
     <col min="37" max="37" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6119,760 +6430,758 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:X17"/>
-    </sheetView>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="2.88671875" customWidth="1"/>
+    <col min="15" max="15" width="3.44140625" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="4.44140625" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" customWidth="1"/>
+    <col min="22" max="22" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="11"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="11"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T13" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="90.75" x14ac:dyDescent="1.25">
+    <row r="17" spans="1:21" ht="90.6" x14ac:dyDescent="1.55">
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" t="s">
+        <v>92</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="T20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N21" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" t="s">
-        <v>142</v>
-      </c>
-      <c r="O19" t="s">
-        <v>107</v>
-      </c>
-      <c r="T19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="s">
+        <v>104</v>
+      </c>
+      <c r="N22" t="s">
+        <v>92</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" t="s">
-        <v>95</v>
-      </c>
-      <c r="O20" t="s">
-        <v>107</v>
-      </c>
-      <c r="T20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" t="s">
-        <v>95</v>
-      </c>
-      <c r="N21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" t="s">
-        <v>107</v>
-      </c>
-      <c r="T21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>94</v>
-      </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N22" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22" t="s">
-        <v>107</v>
-      </c>
-      <c r="T22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O24">
         <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O26" t="s">
+        <v>104</v>
+      </c>
+      <c r="T26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>104</v>
+      </c>
+      <c r="T29" t="s">
+        <v>67</v>
+      </c>
+      <c r="U29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" t="s">
+        <v>67</v>
+      </c>
+      <c r="M31" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="69" x14ac:dyDescent="1.35">
+      <c r="R37" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" t="s">
         <v>98</v>
       </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" t="s">
-        <v>98</v>
-      </c>
-      <c r="T25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>70</v>
-      </c>
-      <c r="K26" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="L40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K43" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+      <c r="K44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>136</v>
       </c>
-      <c r="O26" t="s">
-        <v>107</v>
-      </c>
-      <c r="T26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" t="s">
-        <v>98</v>
-      </c>
-      <c r="N27" t="s">
-        <v>98</v>
-      </c>
-      <c r="T27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" t="s">
-        <v>98</v>
-      </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-      <c r="M28" t="s">
-        <v>98</v>
-      </c>
-      <c r="N28" t="s">
-        <v>98</v>
-      </c>
-      <c r="T28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" t="s">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T29" t="s">
-        <v>70</v>
-      </c>
-      <c r="U29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>129</v>
-      </c>
-      <c r="J30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
-        <v>95</v>
-      </c>
-      <c r="N30" t="s">
-        <v>95</v>
-      </c>
-      <c r="O30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M31" t="s">
-        <v>100</v>
-      </c>
-      <c r="N31" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" ht="68.25" x14ac:dyDescent="1.05">
-      <c r="R37" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" t="s">
-        <v>107</v>
-      </c>
-      <c r="K40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" t="s">
-        <v>107</v>
-      </c>
-      <c r="K41" t="s">
-        <v>96</v>
-      </c>
-      <c r="L41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" t="s">
-        <v>107</v>
-      </c>
-      <c r="K42" t="s">
-        <v>133</v>
-      </c>
-      <c r="L42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" t="s">
-        <v>107</v>
-      </c>
-      <c r="K44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
       <c r="I45" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K45">
         <v>31</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K47">
         <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>154</v>
       </c>
-      <c r="L49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>157</v>
-      </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6883,77 +7192,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="5" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6963,749 +7270,747 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="3.109375" customWidth="1"/>
+    <col min="16" max="16" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
       <c r="C1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>115</v>
       </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
-      </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J7">
         <v>36</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
         <v>119</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
         <v>120</v>
       </c>
-      <c r="F9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="87.75" x14ac:dyDescent="1.05">
+    <row r="25" spans="1:14" ht="87.6" x14ac:dyDescent="1.3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="D32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="58.5" x14ac:dyDescent="0.7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="58.2" x14ac:dyDescent="0.85">
       <c r="G41" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A44" s="1"/>
       <c r="C44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>111</v>
       </c>
-      <c r="D48" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" t="s">
         <v>96</v>
       </c>
-      <c r="G50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>133</v>
-      </c>
-      <c r="G54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" t="s">
-        <v>99</v>
-      </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7716,42 +8021,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" customWidth="1"/>
     <col min="25" max="26" width="3" customWidth="1"/>
-    <col min="27" max="28" width="2.7109375" customWidth="1"/>
+    <col min="27" max="28" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -7759,1061 +8064,1061 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="O1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" t="s">
-        <v>107</v>
-      </c>
-      <c r="W5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X5" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" t="s">
+        <v>104</v>
+      </c>
+      <c r="W6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
         <v>145</v>
       </c>
-      <c r="O6" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" t="s">
-        <v>133</v>
-      </c>
-      <c r="T7" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W7" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>129</v>
+      </c>
+      <c r="T10" t="s">
+        <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" t="s">
+        <v>104</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" t="s">
-        <v>132</v>
-      </c>
-      <c r="T10" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" t="s">
-        <v>107</v>
-      </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" t="s">
-        <v>70</v>
-      </c>
-      <c r="U11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11" t="s">
-        <v>126</v>
-      </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" t="s">
+        <v>106</v>
+      </c>
+      <c r="X13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
         <v>98</v>
       </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" t="s">
-        <v>107</v>
-      </c>
-      <c r="W12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V13" t="s">
-        <v>107</v>
-      </c>
-      <c r="W13" t="s">
-        <v>109</v>
-      </c>
-      <c r="X13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" t="s">
-        <v>101</v>
-      </c>
       <c r="T14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Y16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AA17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -8827,111 +9132,109 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="13" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" customWidth="1"/>
+    <col min="9" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="13" width="3.33203125" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" customWidth="1"/>
-    <col min="25" max="25" width="3.140625" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" customWidth="1"/>
+    <col min="16" max="16" width="3.44140625" customWidth="1"/>
+    <col min="17" max="17" width="3.33203125" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.88671875" customWidth="1"/>
+    <col min="25" max="25" width="3.109375" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2">
         <v>45701</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
